--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_200/Tests_Estadisticos/dm_comparaciones_LSPM_No_lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_200/Tests_Estadisticos/dm_comparaciones_LSPM_No_lineal_Estacionario_SETAR.xlsx
@@ -438,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>-0.1512165200928503</v>
+        <v>-0.1486023186056301</v>
       </c>
       <c r="D2">
-        <v>0.8798230845765911</v>
+        <v>0.8832211487428849</v>
       </c>
       <c r="E2">
         <v>0.6467578076737059</v>
@@ -464,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>0.1036175618172708</v>
+        <v>0.0964237805996284</v>
       </c>
       <c r="D3">
-        <v>0.9174852251278127</v>
+        <v>0.9240570044770351</v>
       </c>
       <c r="E3">
         <v>0.6467578076737059</v>
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>-0.6906959269231895</v>
+        <v>-0.5814121964334773</v>
       </c>
       <c r="D4">
-        <v>0.4898521210103914</v>
+        <v>0.5668726683198455</v>
       </c>
       <c r="E4">
         <v>0.6467578076737059</v>
@@ -516,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>-0.2970975598332243</v>
+        <v>-0.2404969981338094</v>
       </c>
       <c r="D5">
-        <v>0.7664287777061751</v>
+        <v>0.8121719448551756</v>
       </c>
       <c r="E5">
         <v>0.6467578076737059</v>
@@ -542,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>0.2328591108433121</v>
+        <v>0.2361137323734779</v>
       </c>
       <c r="D6">
-        <v>0.8158991927559458</v>
+        <v>0.8155287680290502</v>
       </c>
       <c r="E6">
         <v>0.6513796026161836</v>
@@ -568,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>-0.5176625689121073</v>
+        <v>-0.8172667813547102</v>
       </c>
       <c r="D7">
-        <v>0.6047619141178258</v>
+        <v>0.4225388426556065</v>
       </c>
       <c r="E7">
         <v>0.6513796026161836</v>
@@ -594,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>-0.1612302107097945</v>
+        <v>-0.1429142270655231</v>
       </c>
       <c r="D8">
-        <v>0.871931485069749</v>
+        <v>0.887658786048712</v>
       </c>
       <c r="E8">
         <v>0.6513796026161836</v>
@@ -620,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>-0.881384437773699</v>
+        <v>-0.878185748287354</v>
       </c>
       <c r="D9">
-        <v>0.3782359302341689</v>
+        <v>0.3893334231400476</v>
       </c>
       <c r="E9">
         <v>0.6441629191416447</v>
@@ -646,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-0.3866992127963634</v>
+        <v>-0.2867167853212338</v>
       </c>
       <c r="D10">
-        <v>0.699027901410628</v>
+        <v>0.7770120839040042</v>
       </c>
       <c r="E10">
         <v>0.6441629191416447</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>0.3139244934179454</v>
+        <v>0.2709813970934803</v>
       </c>
       <c r="D11">
-        <v>0.7536173847487373</v>
+        <v>0.7889316036150089</v>
       </c>
       <c r="E11">
         <v>0.6649568273414894</v>
